--- a/biology/Botanique/Allium_gunibicum/Allium_gunibicum.xlsx
+++ b/biology/Botanique/Allium_gunibicum/Allium_gunibicum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allium gunibicum est une espèce de plantes à fleurs du genre Allium, de la famille des Amaryllidaceae et de l'ordre des Asparagales.
 C'est une plante bulbeuse géophyte vivace présente dans le nord-est du Caucase.
@@ -512,10 +524,12 @@
           <t>Taxonomíe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Allium gunibicum a été décrit par Miscz. ex Grossh. et publié dans Fl. Kavkaza 1 : 208 (1928)[1],[2],[3],[4]. 
-Elle a pour synonymes[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Allium gunibicum a été décrit par Miscz. ex Grossh. et publié dans Fl. Kavkaza 1 : 208 (1928). 
+Elle a pour synonymes :
 Allium salthynicum Tscholok.
 Allium chevsuricum Tscholok.
 Allium charadzeae Tscholok.</t>
